--- a/02 Data/Original Data/Internal/Data Dictionary.xlsx
+++ b/02 Data/Original Data/Internal/Data Dictionary.xlsx
@@ -1,36 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankit/Desktop/LTFS_Hackathon/Analytics Vidhya/final_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyGitHubRepositories\MyDataProjects\Vehicle-Loan-Default-Prediction\02 Data\Original Data\Internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E7A8D1-9BF2-425C-8F6D-27C3728E079D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>ltv</t>
   </si>
@@ -218,9 +252,6 @@
     <t>Enquries done by the customer for loans</t>
   </si>
   <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -270,16 +301,108 @@
   </si>
   <si>
     <t>New loans taken by the customer in last 6 months before the disbursment</t>
+  </si>
+  <si>
+    <t>The loan_default variable in your dataset represents whether a customer defaulted on their vehicle loan by not making the first EMI (Equated Monthly Installment) payment on the due date.In essence, loan_default is the outcome you're trying to predict in your project. You'll use various features or attributes from your dataset to build a model that predicts whether a customer is likely to default on their vehicle loan based on their characteristics and the loan details.</t>
+  </si>
+  <si>
+    <t>This numerical variable indicates the total loan amount that the financial institution provided to the customer. It is the actual sum of money that the borrower received when the loan was approved and disbursed. This amount includes both the principal loan amount and any additional fees or charges that may be associated with the loan.</t>
+  </si>
+  <si>
+    <t>the price of the vehicle (e.g., a car or a motorcycle) that the borrower intends to purchase.</t>
+  </si>
+  <si>
+    <t>Loan-to-Value (LTV) Ratio: You can calculate the Loan-to-Value (LTV) ratio by dividing disbursed_amount by asset_cost. The LTV ratio is a critical factor in loan underwriting, and it helps assess the risk associated with the loan. Higher LTV ratios indicate that the loan amount is a significant portion of the asset cost, which can affect the likelihood of default.</t>
+  </si>
+  <si>
+    <r>
+      <t>represents the date on which the vehicle loan was disbursed or issued to the customer.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> For Analysis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Temporal Analysis: You can use DisbursalDate to analyze trends and patterns over time. For example, you can examine whether there are seasonal variations in loan disbursals or if there are specific time periods when loan defaults are more prevalent.
+Loan Performance Over Time: You can track the performance of loans based on their disbursal dates. This can help assess whether loans disbursed during certain time frames have different default rates or if there's a correlation between the time of disbursal and loan performance.
+Loan Term Calculation: DisbursalDate can be used in combination with other date-related variables to calculate the duration of the loan or the remaining time until the loan matures. This information can be valuable when analyzing the relationship between loan duration and defaults.
+Seasonal Factors: Depending on the nature of the vehicle or the borrower's employment type, there might be seasonal factors that affect loan disbursal and repayment patterns. DisbursalDate can help you explore and understand such seasonal trends.</t>
+    </r>
+  </si>
+  <si>
+    <t>In India, the Aadhar card is a government-issued identification card that contains biometric and demographic data of individuals.</t>
+  </si>
+  <si>
+    <t>The PAN_flag variable in your dataset is a binary indicator that represents whether the customer shared their Permanent Account Number (PAN) card as a form of identification or verification.</t>
+  </si>
+  <si>
+    <t>In India, the Voter ID card (also known as the Elector's Photo Identity Card or EPIC) is an official identification card issued to eligible voters by the Election Commission of India. It is used for the purpose of voter registration and as an identification document during elections.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">represents a credit score or credit risk score assigned to the borrower. The score is generated by a credit bureau and is used to assess the creditworthiness of the borrower. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For Analysis : You can use this score to assess whether there's a correlation between the borrower's creditworthiness (as measured by the score) and the likelihood of loan defaults. For example, you might analyze whether borrowers with higher credit scores are less likely to default compared to those with lower scores.</t>
+    </r>
+  </si>
+  <si>
+    <t>the total number of primary (or personal) loans or credit accounts that the customer had at the time when the vehicle loan was disbursed.</t>
+  </si>
+  <si>
+    <t>This numerical variable indicates the total number of primary (personal) loans or credit accounts that were still active and not closed or paid off at the time when the vehicle loan was disbursed.</t>
+  </si>
+  <si>
+    <t>the total number of primary loans or credit accounts that were in an overdue or default status at the time when the vehicle loan was disbursed.</t>
+  </si>
+  <si>
+    <t>the total amount of principal that the customer still owes on their primary loans or credit accounts that were active at the time when the vehicle loan was disbursed.</t>
+  </si>
+  <si>
+    <t>the total sum of money that was disbursed or sanctioned for all the customer's primary loans or credit accounts that were active at the time when the vehicle loan was disbursed.</t>
+  </si>
+  <si>
+    <t>the total amount of money that the borrower received or was approved for on all of their previous loans or credit accounts before they applied for the current vehicle loan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,18 +443,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E77AF3A8-0184-48C5-A140-64CB31E92E61}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,29 +736,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="115.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">A1:B39</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,39 +768,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -675,15 +824,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -691,39 +840,43 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,15 +884,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,55 +900,68 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -803,7 +969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -813,8 +979,11 @@
       <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -822,8 +991,11 @@
         <v>51</v>
       </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -831,8 +1003,11 @@
         <v>52</v>
       </c>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -840,17 +1015,23 @@
         <v>53</v>
       </c>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -858,8 +1039,11 @@
         <v>54</v>
       </c>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -869,8 +1053,9 @@
       <c r="C30" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -878,8 +1063,9 @@
         <v>51</v>
       </c>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -887,8 +1073,9 @@
         <v>52</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -896,17 +1083,19 @@
         <v>53</v>
       </c>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -914,16 +1103,17 @@
         <v>54</v>
       </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -931,15 +1121,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -947,7 +1137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -955,7 +1145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -963,7 +1153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
